--- a/ValueSet-hiv-d-de431.xlsx
+++ b/ValueSet-hiv-d-de431.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T19:37:49+00:00</t>
+    <t>2024-05-29T20:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
